--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374088</v>
+        <v>1539347.878300802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>99.37803318259343</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>21.06378739764988</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>142.6271181085174</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>105.1363548594131</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,10 +1184,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>116.9018397019024</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>88.86957797204941</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>245.9088110842136</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0909680372345</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>42.5313457611372</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.5380597272477</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
-        <v>133.8107367464754</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.9393756113372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>88.27810958517533</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2541.738549849126</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2323.103882821189</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2323.103882821189</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2323.103882821189</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2323.103882821189</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.103882821189</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.103882821189</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2323.103882821189</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2675.872538091303</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2675.872538091303</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2675.872538091303</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2675.872538091303</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2323.103882821189</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.103882821189</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.103882821189</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>554.6442689908469</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>554.6442689908469</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>554.6442689908469</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.145187653148</v>
+        <v>1352.420004471686</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.145187653148</v>
+        <v>983.457487531274</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.145187653148</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.145187653148</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,22 +4802,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2422.851387149492</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2422.851387149492</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2091.788499805922</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>1739.019844535807</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>1739.019844535807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1015.145187653148</v>
+        <v>1739.019844535807</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
         <v>800.9452297060877</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>964.1104128028916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>813.9937733905558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>666.0806798081627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1907323102523</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2311.800723230285</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2092.199258253227</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1803.124031597425</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1548.439543391538</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.022373354577</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1031.03282245656</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>265.0731740618515</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>75.00812759551718</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>163.3181754619432</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.52450498097787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>103.902616885432</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.89590291932146</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012339</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
-        <v>47.21554925516918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194413</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>77.24602870709352</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713555</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713555</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713555</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713555</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682752</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.53656668275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682751</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682752</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758104</v>
+        <v>-369598.2665758105</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387338</v>
+        <v>220369.6126387341</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493914</v>
+        <v>64565.80654493911</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651425</v>
+        <v>-373420.8708905784</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.5584156642</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156637</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.558415664</v>
+        <v>397631.820490228</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230708</v>
+        <v>221208.6012976352</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076053</v>
+        <v>273423.3097821696</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.558415664</v>
+        <v>397631.820490228</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.820490228</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.820490228</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>75.03767962637808</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>153.3519254113216</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>157.721567086496</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>82.40798734956687</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>301.7396908822984</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>95.7500234130636</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>78.37724312657842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>40.35184357388343</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,25 +31835,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>271.3053123348933</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>301.9339310333513</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37789,13 +37789,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
